--- a/Data/Raw/Pak/Horizontal_Pak.xlsx
+++ b/Data/Raw/Pak/Horizontal_Pak.xlsx
@@ -5,22 +5,28 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Books and pdfs\ISP\Data\Pak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\ISP\ISP\Data\Raw\Pak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B0E48C-4044-44B6-8ED0-B4ADD0CCAD36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5DFDCB-052A-4934-AD42-7254A2EF0E08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O325"/>
+  <dimension ref="A1:O342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A326" workbookViewId="0">
+      <selection activeCell="B344" sqref="B344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15677,6 +15683,805 @@
         <v>4.3899999999999997</v>
       </c>
     </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>23.75</v>
+      </c>
+      <c r="B326">
+        <v>63.75</v>
+      </c>
+      <c r="C326">
+        <v>4.8</v>
+      </c>
+      <c r="D326">
+        <v>5.7</v>
+      </c>
+      <c r="E326">
+        <v>6.64</v>
+      </c>
+      <c r="F326">
+        <v>7.39</v>
+      </c>
+      <c r="G326">
+        <v>7.68</v>
+      </c>
+      <c r="H326">
+        <v>7.26</v>
+      </c>
+      <c r="I326">
+        <v>6.31</v>
+      </c>
+      <c r="J326">
+        <v>6.12</v>
+      </c>
+      <c r="K326">
+        <v>6.3</v>
+      </c>
+      <c r="L326">
+        <v>6.04</v>
+      </c>
+      <c r="M326">
+        <v>5.14</v>
+      </c>
+      <c r="N326">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="O326">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>24.25</v>
+      </c>
+      <c r="B327">
+        <v>67.75</v>
+      </c>
+      <c r="C327">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="D327">
+        <v>5.18</v>
+      </c>
+      <c r="E327">
+        <v>5.93</v>
+      </c>
+      <c r="F327">
+        <v>6.65</v>
+      </c>
+      <c r="G327">
+        <v>6.67</v>
+      </c>
+      <c r="H327">
+        <v>6.4</v>
+      </c>
+      <c r="I327">
+        <v>5.44</v>
+      </c>
+      <c r="J327">
+        <v>5.27</v>
+      </c>
+      <c r="K327">
+        <v>5.62</v>
+      </c>
+      <c r="L327">
+        <v>5.24</v>
+      </c>
+      <c r="M327">
+        <v>4.5</v>
+      </c>
+      <c r="N327">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="O327">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>24.25</v>
+      </c>
+      <c r="B328">
+        <v>68.25</v>
+      </c>
+      <c r="C328">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D328">
+        <v>4.92</v>
+      </c>
+      <c r="E328">
+        <v>5.64</v>
+      </c>
+      <c r="F328">
+        <v>6.38</v>
+      </c>
+      <c r="G328">
+        <v>6.5</v>
+      </c>
+      <c r="H328">
+        <v>6.4</v>
+      </c>
+      <c r="I328">
+        <v>5.41</v>
+      </c>
+      <c r="J328">
+        <v>5.12</v>
+      </c>
+      <c r="K328">
+        <v>5.31</v>
+      </c>
+      <c r="L328">
+        <v>4.91</v>
+      </c>
+      <c r="M328">
+        <v>4.24</v>
+      </c>
+      <c r="N328">
+        <v>3.87</v>
+      </c>
+      <c r="O328">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>24.25</v>
+      </c>
+      <c r="B329">
+        <v>68.75</v>
+      </c>
+      <c r="C329">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D329">
+        <v>4.92</v>
+      </c>
+      <c r="E329">
+        <v>5.64</v>
+      </c>
+      <c r="F329">
+        <v>6.38</v>
+      </c>
+      <c r="G329">
+        <v>6.5</v>
+      </c>
+      <c r="H329">
+        <v>6.4</v>
+      </c>
+      <c r="I329">
+        <v>5.41</v>
+      </c>
+      <c r="J329">
+        <v>5.12</v>
+      </c>
+      <c r="K329">
+        <v>5.31</v>
+      </c>
+      <c r="L329">
+        <v>4.91</v>
+      </c>
+      <c r="M329">
+        <v>4.24</v>
+      </c>
+      <c r="N329">
+        <v>3.87</v>
+      </c>
+      <c r="O329">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>24.25</v>
+      </c>
+      <c r="B330">
+        <v>70.25</v>
+      </c>
+      <c r="C330">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D330">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="E330">
+        <v>5.49</v>
+      </c>
+      <c r="F330">
+        <v>6.41</v>
+      </c>
+      <c r="G330">
+        <v>6.83</v>
+      </c>
+      <c r="H330">
+        <v>6.53</v>
+      </c>
+      <c r="I330">
+        <v>5.46</v>
+      </c>
+      <c r="J330">
+        <v>5.17</v>
+      </c>
+      <c r="K330">
+        <v>5.25</v>
+      </c>
+      <c r="L330">
+        <v>4.75</v>
+      </c>
+      <c r="M330">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="N330">
+        <v>3.74</v>
+      </c>
+      <c r="O330">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>29.25</v>
+      </c>
+      <c r="B331">
+        <v>61.25</v>
+      </c>
+      <c r="C331">
+        <v>3.59</v>
+      </c>
+      <c r="D331">
+        <v>4.45</v>
+      </c>
+      <c r="E331">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F331">
+        <v>5.99</v>
+      </c>
+      <c r="G331">
+        <v>6.63</v>
+      </c>
+      <c r="H331">
+        <v>6.92</v>
+      </c>
+      <c r="I331">
+        <v>6.83</v>
+      </c>
+      <c r="J331">
+        <v>6.51</v>
+      </c>
+      <c r="K331">
+        <v>5.78</v>
+      </c>
+      <c r="L331">
+        <v>4.83</v>
+      </c>
+      <c r="M331">
+        <v>3.79</v>
+      </c>
+      <c r="N331">
+        <v>3.26</v>
+      </c>
+      <c r="O331">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>29.75</v>
+      </c>
+      <c r="B332">
+        <v>61.25</v>
+      </c>
+      <c r="C332">
+        <v>3.59</v>
+      </c>
+      <c r="D332">
+        <v>4.45</v>
+      </c>
+      <c r="E332">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="F332">
+        <v>5.99</v>
+      </c>
+      <c r="G332">
+        <v>6.63</v>
+      </c>
+      <c r="H332">
+        <v>6.92</v>
+      </c>
+      <c r="I332">
+        <v>6.83</v>
+      </c>
+      <c r="J332">
+        <v>6.51</v>
+      </c>
+      <c r="K332">
+        <v>5.78</v>
+      </c>
+      <c r="L332">
+        <v>4.83</v>
+      </c>
+      <c r="M332">
+        <v>3.79</v>
+      </c>
+      <c r="N332">
+        <v>3.26</v>
+      </c>
+      <c r="O332">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>32.25</v>
+      </c>
+      <c r="B333">
+        <v>75.25</v>
+      </c>
+      <c r="C333">
+        <v>3.25</v>
+      </c>
+      <c r="D333">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="E333">
+        <v>5.22</v>
+      </c>
+      <c r="F333">
+        <v>6.55</v>
+      </c>
+      <c r="G333">
+        <v>7.32</v>
+      </c>
+      <c r="H333">
+        <v>7.33</v>
+      </c>
+      <c r="I333">
+        <v>5.86</v>
+      </c>
+      <c r="J333">
+        <v>5.48</v>
+      </c>
+      <c r="K333">
+        <v>5.75</v>
+      </c>
+      <c r="L333">
+        <v>5.29</v>
+      </c>
+      <c r="M333">
+        <v>4.13</v>
+      </c>
+      <c r="N333">
+        <v>3.18</v>
+      </c>
+      <c r="O333">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>34.75</v>
+      </c>
+      <c r="B334">
+        <v>76.75</v>
+      </c>
+      <c r="C334">
+        <v>2.67</v>
+      </c>
+      <c r="D334">
+        <v>3.33</v>
+      </c>
+      <c r="E334">
+        <v>4.17</v>
+      </c>
+      <c r="F334">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="G334">
+        <v>5.95</v>
+      </c>
+      <c r="H334">
+        <v>6.81</v>
+      </c>
+      <c r="I334">
+        <v>6.55</v>
+      </c>
+      <c r="J334">
+        <v>6.04</v>
+      </c>
+      <c r="K334">
+        <v>5.53</v>
+      </c>
+      <c r="L334">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M334">
+        <v>3.42</v>
+      </c>
+      <c r="N334">
+        <v>2.52</v>
+      </c>
+      <c r="O334">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>35.25</v>
+      </c>
+      <c r="B335">
+        <v>76.75</v>
+      </c>
+      <c r="C335">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D335">
+        <v>3.23</v>
+      </c>
+      <c r="E335">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F335">
+        <v>5.07</v>
+      </c>
+      <c r="G335">
+        <v>5.85</v>
+      </c>
+      <c r="H335">
+        <v>6.52</v>
+      </c>
+      <c r="I335">
+        <v>6.43</v>
+      </c>
+      <c r="J335">
+        <v>5.81</v>
+      </c>
+      <c r="K335">
+        <v>5.25</v>
+      </c>
+      <c r="L335">
+        <v>4.24</v>
+      </c>
+      <c r="M335">
+        <v>3.11</v>
+      </c>
+      <c r="N335">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O335">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>35.75</v>
+      </c>
+      <c r="B336">
+        <v>76.25</v>
+      </c>
+      <c r="C336">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D336">
+        <v>3.23</v>
+      </c>
+      <c r="E336">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F336">
+        <v>5.07</v>
+      </c>
+      <c r="G336">
+        <v>5.85</v>
+      </c>
+      <c r="H336">
+        <v>6.52</v>
+      </c>
+      <c r="I336">
+        <v>6.43</v>
+      </c>
+      <c r="J336">
+        <v>5.81</v>
+      </c>
+      <c r="K336">
+        <v>5.25</v>
+      </c>
+      <c r="L336">
+        <v>4.24</v>
+      </c>
+      <c r="M336">
+        <v>3.11</v>
+      </c>
+      <c r="N336">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O336">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>35.75</v>
+      </c>
+      <c r="B337">
+        <v>77.25</v>
+      </c>
+      <c r="C337">
+        <v>2.52</v>
+      </c>
+      <c r="D337">
+        <v>3.25</v>
+      </c>
+      <c r="E337">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F337">
+        <v>4.93</v>
+      </c>
+      <c r="G337">
+        <v>5.58</v>
+      </c>
+      <c r="H337">
+        <v>6.03</v>
+      </c>
+      <c r="I337">
+        <v>6.06</v>
+      </c>
+      <c r="J337">
+        <v>5.49</v>
+      </c>
+      <c r="K337">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="L337">
+        <v>3.92</v>
+      </c>
+      <c r="M337">
+        <v>2.81</v>
+      </c>
+      <c r="N337">
+        <v>2.23</v>
+      </c>
+      <c r="O337">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>36.25</v>
+      </c>
+      <c r="B338">
+        <v>71.25</v>
+      </c>
+      <c r="C338">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D338">
+        <v>3.2</v>
+      </c>
+      <c r="E338">
+        <v>4.07</v>
+      </c>
+      <c r="F338">
+        <v>4.99</v>
+      </c>
+      <c r="G338">
+        <v>6</v>
+      </c>
+      <c r="H338">
+        <v>7.1</v>
+      </c>
+      <c r="I338">
+        <v>7.39</v>
+      </c>
+      <c r="J338">
+        <v>7.03</v>
+      </c>
+      <c r="K338">
+        <v>6.11</v>
+      </c>
+      <c r="L338">
+        <v>4.38</v>
+      </c>
+      <c r="M338">
+        <v>3.03</v>
+      </c>
+      <c r="N338">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="O338">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>36.25</v>
+      </c>
+      <c r="B339">
+        <v>75.75</v>
+      </c>
+      <c r="C339">
+        <v>2.38</v>
+      </c>
+      <c r="D339">
+        <v>3.14</v>
+      </c>
+      <c r="E339">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="F339">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G339">
+        <v>5.7</v>
+      </c>
+      <c r="H339">
+        <v>6.44</v>
+      </c>
+      <c r="I339">
+        <v>6.39</v>
+      </c>
+      <c r="J339">
+        <v>5.7</v>
+      </c>
+      <c r="K339">
+        <v>4.97</v>
+      </c>
+      <c r="L339">
+        <v>3.88</v>
+      </c>
+      <c r="M339">
+        <v>2.85</v>
+      </c>
+      <c r="N339">
+        <v>2.15</v>
+      </c>
+      <c r="O339">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>36.75</v>
+      </c>
+      <c r="B340">
+        <v>73.25</v>
+      </c>
+      <c r="C340">
+        <v>2.38</v>
+      </c>
+      <c r="D340">
+        <v>3.04</v>
+      </c>
+      <c r="E340">
+        <v>3.96</v>
+      </c>
+      <c r="F340">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="G340">
+        <v>5.75</v>
+      </c>
+      <c r="H340">
+        <v>6.89</v>
+      </c>
+      <c r="I340">
+        <v>7.07</v>
+      </c>
+      <c r="J340">
+        <v>6.39</v>
+      </c>
+      <c r="K340">
+        <v>5.62</v>
+      </c>
+      <c r="L340">
+        <v>4.08</v>
+      </c>
+      <c r="M340">
+        <v>2.95</v>
+      </c>
+      <c r="N340">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="O340">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>36.75</v>
+      </c>
+      <c r="B341">
+        <v>75.25</v>
+      </c>
+      <c r="C341">
+        <v>2.38</v>
+      </c>
+      <c r="D341">
+        <v>3.14</v>
+      </c>
+      <c r="E341">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="F341">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G341">
+        <v>5.7</v>
+      </c>
+      <c r="H341">
+        <v>6.44</v>
+      </c>
+      <c r="I341">
+        <v>6.39</v>
+      </c>
+      <c r="J341">
+        <v>5.7</v>
+      </c>
+      <c r="K341">
+        <v>4.97</v>
+      </c>
+      <c r="L341">
+        <v>3.88</v>
+      </c>
+      <c r="M341">
+        <v>2.85</v>
+      </c>
+      <c r="N341">
+        <v>2.15</v>
+      </c>
+      <c r="O341">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>36.75</v>
+      </c>
+      <c r="B342">
+        <v>75.75</v>
+      </c>
+      <c r="C342">
+        <v>2.38</v>
+      </c>
+      <c r="D342">
+        <v>3.14</v>
+      </c>
+      <c r="E342">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="F342">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G342">
+        <v>5.7</v>
+      </c>
+      <c r="H342">
+        <v>6.44</v>
+      </c>
+      <c r="I342">
+        <v>6.39</v>
+      </c>
+      <c r="J342">
+        <v>5.7</v>
+      </c>
+      <c r="K342">
+        <v>4.97</v>
+      </c>
+      <c r="L342">
+        <v>3.88</v>
+      </c>
+      <c r="M342">
+        <v>2.85</v>
+      </c>
+      <c r="N342">
+        <v>2.15</v>
+      </c>
+      <c r="O342">
+        <v>4.3899999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
